--- a/data/trans_dic/IP19C01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,46; 80,27</t>
+          <t>58,8; 80,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61,16; 84,28</t>
+          <t>62,47; 84,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,71; 82,0</t>
+          <t>56,52; 81,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,34; 96,4</t>
+          <t>67,74; 94,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,75; 77,29</t>
+          <t>52,91; 74,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,01; 83,52</t>
+          <t>62,35; 83,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,18; 77,77</t>
+          <t>44,7; 77,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,27; 91,59</t>
+          <t>57,87; 91,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,1; 74,78</t>
+          <t>59,16; 74,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,63; 81,37</t>
+          <t>66,28; 80,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54,82; 76,82</t>
+          <t>56,33; 77,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>66,16; 90,1</t>
+          <t>67,75; 90,42</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,32; 75,28</t>
+          <t>66,19; 75,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,71; 77,94</t>
+          <t>68,56; 77,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,54; 82,05</t>
+          <t>73,47; 82,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,43; 84,15</t>
+          <t>75,46; 84,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,25; 67,82</t>
+          <t>57,91; 67,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,92; 74,64</t>
+          <t>64,15; 74,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,06; 76,82</t>
+          <t>67,64; 77,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,79; 87,65</t>
+          <t>79,62; 87,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,42; 70,58</t>
+          <t>63,87; 70,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>68,32; 75,14</t>
+          <t>67,51; 74,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,35; 78,81</t>
+          <t>72,09; 78,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,01; 85,2</t>
+          <t>79,03; 84,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,03; 80,76</t>
+          <t>63,96; 80,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,56; 90,11</t>
+          <t>77,2; 90,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,08; 78,41</t>
+          <t>62,0; 78,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,02; 91,49</t>
+          <t>80,7; 91,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,92; 83,25</t>
+          <t>67,03; 83,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,75; 85,39</t>
+          <t>69,59; 85,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>70,47; 85,4</t>
+          <t>71,2; 85,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>68,3; 83,46</t>
+          <t>68,99; 83,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,4; 80,2</t>
+          <t>69,09; 80,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>75,84; 85,8</t>
+          <t>75,85; 86,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68,99; 79,66</t>
+          <t>69,56; 80,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>78,22; 87,02</t>
+          <t>78,11; 86,8</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,66; 75,56</t>
+          <t>67,04; 74,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,16; 79,26</t>
+          <t>72,05; 79,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,15; 79,21</t>
+          <t>72,38; 79,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,67; 85,56</t>
+          <t>79,16; 85,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,23; 70,43</t>
+          <t>61,85; 69,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,84; 75,69</t>
+          <t>68,03; 75,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,93; 77,39</t>
+          <t>69,14; 77,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,01; 85,18</t>
+          <t>78,33; 85,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,22; 71,67</t>
+          <t>66,06; 71,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,29; 76,63</t>
+          <t>71,36; 76,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>71,73; 77,28</t>
+          <t>72,05; 77,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>79,71; 84,72</t>
+          <t>79,87; 84,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>64,67%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>73,75%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>63,32%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>76,17%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>70,54%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>74,17%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>69,48%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>85,05%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>64,67%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>73,75%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>63,32%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79,27%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>80,26%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,8; 80,25</t>
+          <t>52,87; 75,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,47; 84,65</t>
+          <t>63,45; 83,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,52; 81,97</t>
+          <t>44,71; 79,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>67,74; 94,67</t>
+          <t>47,63; 91,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,91; 74,29</t>
+          <t>58,69; 80,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,35; 83,32</t>
+          <t>60,96; 83,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,7; 77,71</t>
+          <t>54,93; 83,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,87; 91,75</t>
+          <t>68,29; 95,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,16; 74,91</t>
+          <t>59,11; 74,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,28; 80,89</t>
+          <t>65,69; 80,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>56,33; 77,08</t>
+          <t>54,93; 76,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>67,75; 90,42</t>
+          <t>64,62; 89,87</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>63,15%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>69,44%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>72,71%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>84,07%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>70,92%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>73,46%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>78,32%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>80,36%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>63,15%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>69,44%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>72,71%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>80,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>81,87%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,19; 75,1</t>
+          <t>57,73; 67,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,56; 77,75</t>
+          <t>64,57; 74,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,47; 82,39</t>
+          <t>67,58; 77,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,46; 84,53</t>
+          <t>79,82; 87,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,91; 67,69</t>
+          <t>65,97; 75,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,15; 74,27</t>
+          <t>68,24; 78,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,64; 77,31</t>
+          <t>73,77; 82,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,62; 87,82</t>
+          <t>74,75; 84,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,87; 70,88</t>
+          <t>63,7; 70,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>67,51; 74,99</t>
+          <t>67,52; 74,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,09; 78,68</t>
+          <t>72,37; 78,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,03; 84,93</t>
+          <t>78,66; 85,01</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>76,23%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>78,22%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78,72%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77,06%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>73,45%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>84,33%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>71,05%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>87,3%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>76,23%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>78,22%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>78,72%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>83,06%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,96; 80,83</t>
+          <t>67,5; 83,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,2; 90,4</t>
+          <t>69,88; 84,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,0; 78,06</t>
+          <t>71,19; 85,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,7; 91,71</t>
+          <t>68,85; 83,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,03; 83,66</t>
+          <t>63,63; 80,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,59; 85,33</t>
+          <t>76,49; 90,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,2; 85,86</t>
+          <t>63,03; 78,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>68,99; 83,62</t>
+          <t>80,93; 92,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69,09; 80,31</t>
+          <t>68,73; 80,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>75,85; 86,01</t>
+          <t>75,69; 85,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69,56; 80,62</t>
+          <t>68,88; 79,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>78,11; 86,8</t>
+          <t>78,05; 86,95</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>66,17%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72,13%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>73,58%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81,67%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>71,38%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>75,98%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>75,92%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>82,54%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>66,17%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>72,13%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>73,58%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>82,09%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,04; 74,76</t>
+          <t>61,4; 69,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,05; 79,43</t>
+          <t>67,86; 75,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,38; 79,31</t>
+          <t>69,6; 77,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,16; 85,71</t>
+          <t>77,96; 84,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,85; 69,9</t>
+          <t>67,59; 75,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,03; 75,7</t>
+          <t>71,97; 79,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,14; 77,05</t>
+          <t>72,19; 79,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,33; 85,27</t>
+          <t>78,51; 85,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,06; 71,53</t>
+          <t>65,89; 71,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,36; 76,64</t>
+          <t>71,46; 76,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,05; 77,41</t>
+          <t>72,09; 77,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>79,87; 84,57</t>
+          <t>79,73; 84,54</t>
         </is>
       </c>
     </row>
